--- a/Data_frame/balancos_definitivos/MILS3.xlsx
+++ b/Data_frame/balancos_definitivos/MILS3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD80"/>
+  <dimension ref="A1:BG80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,6 +714,21 @@
           <t>30/09/2023</t>
         </is>
       </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>31/03/2024</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -886,6 +901,15 @@
       <c r="BD2" t="n">
         <v>2755343.104</v>
       </c>
+      <c r="BE2" t="n">
+        <v>2740404.992</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>3059418.112</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>3543660.032</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1058,6 +1082,15 @@
       <c r="BD3" t="n">
         <v>1012782.016</v>
       </c>
+      <c r="BE3" t="n">
+        <v>1015304</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>1206417.024</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>1321643.008</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1230,6 +1263,15 @@
       <c r="BD4" t="n">
         <v>570148.992</v>
       </c>
+      <c r="BE4" t="n">
+        <v>546889.024</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>692515.008</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>600448</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1402,6 +1444,15 @@
       <c r="BD5" t="n">
         <v>9258</v>
       </c>
+      <c r="BE5" t="n">
+        <v>9531</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>22962</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>129183</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1574,6 +1625,15 @@
       <c r="BD6" t="n">
         <v>292404.992</v>
       </c>
+      <c r="BE6" t="n">
+        <v>319815.008</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>341886.016</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>384417.984</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1746,6 +1806,15 @@
       <c r="BD7" t="n">
         <v>69363</v>
       </c>
+      <c r="BE7" t="n">
+        <v>72065</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>72928</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>99601</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1918,6 +1987,15 @@
       <c r="BD8" t="n">
         <v>0</v>
       </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2090,6 +2168,15 @@
       <c r="BD9" t="n">
         <v>36097</v>
       </c>
+      <c r="BE9" t="n">
+        <v>36350</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>39155</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>48374</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2262,6 +2349,15 @@
       <c r="BD10" t="n">
         <v>0</v>
       </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2434,6 +2530,15 @@
       <c r="BD11" t="n">
         <v>35510</v>
       </c>
+      <c r="BE11" t="n">
+        <v>30654</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>36971</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>59619</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2606,6 +2711,15 @@
       <c r="BD12" t="n">
         <v>297932.992</v>
       </c>
+      <c r="BE12" t="n">
+        <v>285331.008</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>284012.992</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>264616.992</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2778,6 +2892,15 @@
       <c r="BD13" t="n">
         <v>0</v>
       </c>
+      <c r="BE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2950,6 +3073,15 @@
       <c r="BD14" t="n">
         <v>0</v>
       </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3122,6 +3254,15 @@
       <c r="BD15" t="n">
         <v>0</v>
       </c>
+      <c r="BE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3294,6 +3435,15 @@
       <c r="BD16" t="n">
         <v>0</v>
       </c>
+      <c r="BE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3466,6 +3616,15 @@
       <c r="BD17" t="n">
         <v>0</v>
       </c>
+      <c r="BE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3638,6 +3797,15 @@
       <c r="BD18" t="n">
         <v>0</v>
       </c>
+      <c r="BE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3810,6 +3978,15 @@
       <c r="BD19" t="n">
         <v>234579.008</v>
       </c>
+      <c r="BE19" t="n">
+        <v>223508.992</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>216848.992</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>192878</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3982,6 +4159,15 @@
       <c r="BD20" t="n">
         <v>0</v>
       </c>
+      <c r="BE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4154,6 +4340,15 @@
       <c r="BD21" t="n">
         <v>0</v>
       </c>
+      <c r="BE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4326,6 +4521,15 @@
       <c r="BD22" t="n">
         <v>1</v>
       </c>
+      <c r="BE22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4498,6 +4702,15 @@
       <c r="BD23" t="n">
         <v>1250775.04</v>
       </c>
+      <c r="BE23" t="n">
+        <v>1238802.048</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>1364713.984</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>1599604.992</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4670,6 +4883,15 @@
       <c r="BD24" t="n">
         <v>193852</v>
       </c>
+      <c r="BE24" t="n">
+        <v>200967.008</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>204274</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>357795.008</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4842,6 +5064,15 @@
       <c r="BD25" t="n">
         <v>0</v>
       </c>
+      <c r="BE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5014,6 +5245,15 @@
       <c r="BD26" t="n">
         <v>2755343.104</v>
       </c>
+      <c r="BE26" t="n">
+        <v>2740404.992</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>3059418.112</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>3543660.032</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5186,6 +5426,15 @@
       <c r="BD27" t="n">
         <v>407425.984</v>
       </c>
+      <c r="BE27" t="n">
+        <v>387208</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>473372</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>561003.008</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5358,6 +5607,15 @@
       <c r="BD28" t="n">
         <v>42449</v>
       </c>
+      <c r="BE28" t="n">
+        <v>40878</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>75949</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>65867</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5530,6 +5788,15 @@
       <c r="BD29" t="n">
         <v>138679.008</v>
       </c>
+      <c r="BE29" t="n">
+        <v>104300</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>186348.992</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>157355.008</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5702,6 +5969,15 @@
       <c r="BD30" t="n">
         <v>20296</v>
       </c>
+      <c r="BE30" t="n">
+        <v>15542</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>14369</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>23146</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5874,6 +6150,15 @@
       <c r="BD31" t="n">
         <v>170656.992</v>
       </c>
+      <c r="BE31" t="n">
+        <v>181644</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>178067.008</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>293503.008</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6046,6 +6331,15 @@
       <c r="BD32" t="n">
         <v>0</v>
       </c>
+      <c r="BE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6218,6 +6512,15 @@
       <c r="BD33" t="n">
         <v>15313</v>
       </c>
+      <c r="BE33" t="n">
+        <v>15591</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>17705</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>20079</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6390,6 +6693,15 @@
       <c r="BD34" t="n">
         <v>20032</v>
       </c>
+      <c r="BE34" t="n">
+        <v>29253</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>933</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>1053</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6562,6 +6874,15 @@
       <c r="BD35" t="n">
         <v>0</v>
       </c>
+      <c r="BE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6734,6 +7055,15 @@
       <c r="BD36" t="n">
         <v>0</v>
       </c>
+      <c r="BE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6906,6 +7236,15 @@
       <c r="BD37" t="n">
         <v>954881.024</v>
       </c>
+      <c r="BE37" t="n">
+        <v>891577.024</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>1071974.016</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>1515431.936</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7078,6 +7417,15 @@
       <c r="BD38" t="n">
         <v>884094.0159999999</v>
       </c>
+      <c r="BE38" t="n">
+        <v>816132.992</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>997465.9840000001</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>1352795.008</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7250,6 +7598,15 @@
       <c r="BD39" t="n">
         <v>0</v>
       </c>
+      <c r="BE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7422,6 +7779,15 @@
       <c r="BD40" t="n">
         <v>41405</v>
       </c>
+      <c r="BE40" t="n">
+        <v>47437</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>46627</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>118614</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7594,6 +7960,15 @@
       <c r="BD41" t="n">
         <v>0</v>
       </c>
+      <c r="BE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>15587</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7766,6 +8141,15 @@
       <c r="BD42" t="n">
         <v>0</v>
       </c>
+      <c r="BE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7938,6 +8322,15 @@
       <c r="BD43" t="n">
         <v>29382</v>
       </c>
+      <c r="BE43" t="n">
+        <v>28007</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>27881</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>28436</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8110,6 +8503,15 @@
       <c r="BD44" t="n">
         <v>0</v>
       </c>
+      <c r="BE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8282,6 +8684,15 @@
       <c r="BD45" t="n">
         <v>0</v>
       </c>
+      <c r="BE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8454,6 +8865,15 @@
       <c r="BD46" t="n">
         <v>2318</v>
       </c>
+      <c r="BE46" t="n">
+        <v>2454</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>2518</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>2605</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8626,6 +9046,15 @@
       <c r="BD47" t="n">
         <v>1390718.032</v>
       </c>
+      <c r="BE47" t="n">
+        <v>1459165.968</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>1511554.064</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>1464619.96</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8798,6 +9227,15 @@
       <c r="BD48" t="n">
         <v>1091559.936</v>
       </c>
+      <c r="BE48" t="n">
+        <v>1091559.936</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>1091559.936</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>1091559.936</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8970,6 +9408,15 @@
       <c r="BD49" t="n">
         <v>-22436</v>
       </c>
+      <c r="BE49" t="n">
+        <v>-18548</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>-14331</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>-98714</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9142,6 +9589,15 @@
       <c r="BD50" t="n">
         <v>0</v>
       </c>
+      <c r="BE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9314,6 +9770,15 @@
       <c r="BD51" t="n">
         <v>196176.992</v>
       </c>
+      <c r="BE51" t="n">
+        <v>403382.016</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>403382.016</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>391955.008</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9486,6 +9951,15 @@
       <c r="BD52" t="n">
         <v>143422</v>
       </c>
+      <c r="BE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>48171</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>97047</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9658,6 +10132,15 @@
       <c r="BD53" t="n">
         <v>-18005</v>
       </c>
+      <c r="BE53" t="n">
+        <v>-17228</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>-17228</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>-17228</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -9830,6 +10313,15 @@
       <c r="BD54" t="n">
         <v>0</v>
       </c>
+      <c r="BE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -10002,6 +10494,15 @@
       <c r="BD55" t="n">
         <v>0</v>
       </c>
+      <c r="BE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -10172,6 +10673,15 @@
         <v>0</v>
       </c>
       <c r="BD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10242,6 +10752,9 @@
       <c r="BB57" t="inlineStr"/>
       <c r="BC57" t="inlineStr"/>
       <c r="BD57" t="inlineStr"/>
+      <c r="BE57" t="inlineStr"/>
+      <c r="BF57" t="inlineStr"/>
+      <c r="BG57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -10310,6 +10823,9 @@
       <c r="BB58" t="inlineStr"/>
       <c r="BC58" t="inlineStr"/>
       <c r="BD58" t="inlineStr"/>
+      <c r="BE58" t="inlineStr"/>
+      <c r="BF58" t="inlineStr"/>
+      <c r="BG58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -10482,6 +10998,15 @@
       <c r="BD59" t="n">
         <v>347784.992</v>
       </c>
+      <c r="BE59" t="n">
+        <v>367255.04</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>353176</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>370131.008</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -10654,6 +11179,15 @@
       <c r="BD60" t="n">
         <v>-126011</v>
       </c>
+      <c r="BE60" t="n">
+        <v>-128851.992</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>-139710</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>-137103.008</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -10826,6 +11360,15 @@
       <c r="BD61" t="n">
         <v>221774</v>
       </c>
+      <c r="BE61" t="n">
+        <v>238403.024</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>213466</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>233028</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -10998,6 +11541,15 @@
       <c r="BD62" t="n">
         <v>0</v>
       </c>
+      <c r="BE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -11170,6 +11722,15 @@
       <c r="BD63" t="n">
         <v>-104322</v>
       </c>
+      <c r="BE63" t="n">
+        <v>-86613.992</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>-97603</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>-114886</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -11334,6 +11895,15 @@
       <c r="BD64" t="n">
         <v>0</v>
       </c>
+      <c r="BE64" t="n">
+        <v>-19920</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>-4441</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -11506,6 +12076,15 @@
       <c r="BD65" t="n">
         <v>857</v>
       </c>
+      <c r="BE65" t="n">
+        <v>1336</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>1261</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>1643</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -11678,6 +12257,15 @@
       <c r="BD66" t="n">
         <v>0</v>
       </c>
+      <c r="BE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -11850,6 +12438,15 @@
       <c r="BD67" t="n">
         <v>0</v>
       </c>
+      <c r="BE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -12022,6 +12619,15 @@
       <c r="BD68" t="n">
         <v>-23904</v>
       </c>
+      <c r="BE68" t="n">
+        <v>-18814</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>-19483</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>-22134</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -12194,6 +12800,15 @@
       <c r="BD69" t="n">
         <v>29848</v>
       </c>
+      <c r="BE69" t="n">
+        <v>25129</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>27313</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>33686</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -12365,6 +12980,15 @@
       </c>
       <c r="BD70" t="n">
         <v>-53752</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>-43943.008</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>-46796</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>-55820</v>
       </c>
     </row>
     <row r="71">
@@ -12434,6 +13058,9 @@
       <c r="BB71" t="inlineStr"/>
       <c r="BC71" t="inlineStr"/>
       <c r="BD71" t="inlineStr"/>
+      <c r="BE71" t="inlineStr"/>
+      <c r="BF71" t="inlineStr"/>
+      <c r="BG71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -12502,6 +13129,9 @@
       <c r="BB72" t="inlineStr"/>
       <c r="BC72" t="inlineStr"/>
       <c r="BD72" t="inlineStr"/>
+      <c r="BE72" t="inlineStr"/>
+      <c r="BF72" t="inlineStr"/>
+      <c r="BG72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -12570,6 +13200,9 @@
       <c r="BB73" t="inlineStr"/>
       <c r="BC73" t="inlineStr"/>
       <c r="BD73" t="inlineStr"/>
+      <c r="BE73" t="inlineStr"/>
+      <c r="BF73" t="inlineStr"/>
+      <c r="BG73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -12742,6 +13375,15 @@
       <c r="BD74" t="n">
         <v>94405</v>
       </c>
+      <c r="BE74" t="n">
+        <v>114391</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>93200</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>97651</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -12914,6 +13556,15 @@
       <c r="BD75" t="n">
         <v>-17769</v>
       </c>
+      <c r="BE75" t="n">
+        <v>-22702</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>-18846</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>-7048</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -13085,6 +13736,15 @@
       </c>
       <c r="BD76" t="n">
         <v>-9922</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>-10671</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>-6659</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>-19625</v>
       </c>
     </row>
     <row r="77">
@@ -13154,6 +13814,9 @@
       <c r="BB77" t="inlineStr"/>
       <c r="BC77" t="inlineStr"/>
       <c r="BD77" t="inlineStr"/>
+      <c r="BE77" t="inlineStr"/>
+      <c r="BF77" t="inlineStr"/>
+      <c r="BG77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -13222,6 +13885,9 @@
       <c r="BB78" t="inlineStr"/>
       <c r="BC78" t="inlineStr"/>
       <c r="BD78" t="inlineStr"/>
+      <c r="BE78" t="inlineStr"/>
+      <c r="BF78" t="inlineStr"/>
+      <c r="BG78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -13322,6 +13988,15 @@
       <c r="BD79" t="n">
         <v>-162</v>
       </c>
+      <c r="BE79" t="n">
+        <v>-137</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>-64</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>-87</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -13494,6 +14169,15 @@
       <c r="BD80" t="n">
         <v>66552</v>
       </c>
+      <c r="BE80" t="n">
+        <v>80880.984</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>67631</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>70891</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
